--- a/data/trans_dic/P16A17-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A17-Dificultad-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.00592458812231032</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.008108743007201902</v>
+        <v>0.008108743007201904</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003111711354493044</v>
+        <v>0.002215213625474817</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002347658545729648</v>
+        <v>0.00252946433556542</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003377387691970768</v>
+        <v>0.00342739987953152</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01429862378598793</v>
+        <v>0.01338158952088004</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.005245326398389209</v>
+        <v>0.00466079237433742</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01222771637817335</v>
+        <v>0.01213950689525799</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01606748982823811</v>
+        <v>0.01613961529131881</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002557592988839722</v>
+        <v>0.002365639136718862</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00378459518376641</v>
+        <v>0.004458438284160737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0</v>
+        <v>0.0009704355215785998</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003025669068762102</v>
+        <v>0.003228745126534609</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01267892990875125</v>
+        <v>0.01339320270925064</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01815344028091194</v>
+        <v>0.01719357140761119</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.008028445441241389</v>
+        <v>0.008985992571361519</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01092711137883402</v>
+        <v>0.01098602556252595</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004954133950903715</v>
+        <v>0.004860779355066388</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001184388670220305</v>
+        <v>0.001326801746408707</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004143924707043981</v>
+        <v>0.004111422878499887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001670492549870193</v>
+        <v>0.001782229776096966</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01669850093825499</v>
+        <v>0.01711629362742932</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01184374171304899</v>
+        <v>0.01288032788527629</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01930821085745407</v>
+        <v>0.01824333377729991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.008253108362479127</v>
+        <v>0.008889393360021229</v>
       </c>
     </row>
     <row r="13">
@@ -807,11 +807,11 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005144829332464198</v>
+        <v>0.005258771206597936</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.000426704015989114</v>
+        <v>0.0004220805593035618</v>
       </c>
     </row>
     <row r="15">
@@ -822,14 +822,14 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01769360222311134</v>
+        <v>0.02059860986280683</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03637533201997768</v>
+        <v>0.03443531174453485</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.005656385832879063</v>
+        <v>0.005470616681796695</v>
       </c>
     </row>
     <row r="16">
@@ -853,7 +853,7 @@
         <v>0.005128763802554437</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.00494151924542801</v>
+        <v>0.004941519245428011</v>
       </c>
     </row>
     <row r="17">
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004980782308278286</v>
+        <v>0.004723463795405753</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003746956137504297</v>
+        <v>0.003980912117611118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002958349217831736</v>
+        <v>0.002976061569518095</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.003170387715069398</v>
+        <v>0.003208263174816966</v>
       </c>
     </row>
     <row r="18">
@@ -884,16 +884,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01085296958178146</v>
+        <v>0.01095600165423465</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.009291436983659312</v>
+        <v>0.009623365893714658</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.008167301745985433</v>
+        <v>0.008063410223191901</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.007203175408774222</v>
+        <v>0.007120689463982103</v>
       </c>
     </row>
     <row r="19">
@@ -1042,16 +1042,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2867</v>
+        <v>2041</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2957</v>
+        <v>3186</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2104</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="7">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13174</v>
+        <v>12329</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5821</v>
+        <v>5172</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15402</v>
+        <v>15290</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10007</v>
+        <v>10052</v>
       </c>
     </row>
     <row r="8">
@@ -1126,16 +1126,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2703</v>
+        <v>2500</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4126</v>
+        <v>4860</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3368</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="11">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13397</v>
+        <v>14152</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19789</v>
+        <v>18742</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8080</v>
+        <v>9044</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12163</v>
+        <v>12229</v>
       </c>
     </row>
     <row r="12">
@@ -1210,16 +1210,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4924</v>
+        <v>4831</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1033</v>
+        <v>1157</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3195</v>
+        <v>3170</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1749</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="15">
@@ -1230,16 +1230,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16597</v>
+        <v>17013</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10326</v>
+        <v>11229</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14888</v>
+        <v>14067</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8643</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="16">
@@ -1297,11 +1297,11 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2309</v>
+        <v>2360</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19">
@@ -1312,14 +1312,14 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6036</v>
+        <v>7027</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16322</v>
+        <v>15452</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>5132</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="20">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16502</v>
+        <v>15649</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13191</v>
+        <v>14014</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10433</v>
+        <v>10496</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11700</v>
+        <v>11840</v>
       </c>
     </row>
     <row r="23">
@@ -1394,16 +1394,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35957</v>
+        <v>36298</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32709</v>
+        <v>33878</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>28804</v>
+        <v>28438</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26583</v>
+        <v>26279</v>
       </c>
     </row>
     <row r="24">
